--- a/Codes HIERARCHY.xlsx
+++ b/Codes HIERARCHY.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aaron\Desktop\GitHub\Thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C3AB539B-02CD-4F71-A672-54D6B7CE580B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D8C064D-A3E2-4EB7-98DD-FD876CC2B4E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{764181B1-D74E-410E-B740-342207923688}"/>
   </bookViews>
@@ -56,9 +56,6 @@
     <t>FTBLNP i csv</t>
   </si>
   <si>
-    <t>CleanSourceCode2YCrd V4</t>
-  </si>
-  <si>
     <t>YellowCrdCorrection</t>
   </si>
   <si>
@@ -282,6 +279,9 @@
   </si>
   <si>
     <t>GRAPHS</t>
+  </si>
+  <si>
+    <t>CleanSourceCode2YCrd V4 / Cards Correction CTA</t>
   </si>
 </sst>
 </file>
@@ -457,7 +457,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -775,11 +775,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{497932EF-9050-4338-96A9-1D35765E6408}">
   <dimension ref="B8:AG106"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="17" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="S134" sqref="S134"/>
+    <sheetView tabSelected="1" topLeftCell="J45" zoomScale="54" zoomScaleNormal="54" workbookViewId="0">
+      <selection activeCell="AC81" sqref="AC81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="20.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.88671875" bestFit="1" customWidth="1"/>
@@ -813,7 +813,7 @@
   <sheetData>
     <row r="8" spans="15:21" x14ac:dyDescent="0.3">
       <c r="S8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="15:21" x14ac:dyDescent="0.3">
@@ -849,7 +849,7 @@
       <c r="Q15" s="17"/>
       <c r="R15" s="17"/>
       <c r="S15" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="T15" s="17"/>
       <c r="U15" s="17"/>
@@ -860,7 +860,7 @@
       <c r="Q16" s="17"/>
       <c r="R16" s="17"/>
       <c r="S16" s="17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="T16" s="17"/>
       <c r="U16" s="17"/>
@@ -871,7 +871,7 @@
       <c r="Q17" s="17"/>
       <c r="R17" s="17"/>
       <c r="S17" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="T17" s="17"/>
       <c r="U17" s="17"/>
@@ -887,7 +887,7 @@
       <c r="Q18" s="17"/>
       <c r="R18" s="17"/>
       <c r="S18" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="T18" s="17"/>
       <c r="U18" s="17"/>
@@ -909,10 +909,10 @@
     <row r="20" spans="3:21" x14ac:dyDescent="0.3">
       <c r="I20" s="18"/>
       <c r="J20" s="18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K20" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L20" s="18"/>
       <c r="M20" s="18"/>
@@ -928,7 +928,7 @@
       <c r="I21" s="18"/>
       <c r="J21" s="18"/>
       <c r="K21" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L21" s="18"/>
       <c r="M21" s="18"/>
@@ -944,18 +944,18 @@
       <c r="I22" s="18"/>
       <c r="J22" s="18"/>
       <c r="K22" s="18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L22" s="18"/>
       <c r="M22" s="18"/>
       <c r="O22" s="17"/>
       <c r="P22" s="17"/>
       <c r="Q22" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="R22" s="17"/>
       <c r="S22" s="17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="T22" s="17"/>
       <c r="U22" s="17"/>
@@ -964,18 +964,18 @@
       <c r="I23" s="18"/>
       <c r="J23" s="18"/>
       <c r="K23" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L23" s="18"/>
       <c r="M23" s="18"/>
       <c r="O23" s="17"/>
       <c r="P23" s="17"/>
       <c r="Q23" s="17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="R23" s="17"/>
       <c r="S23" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="T23" s="17"/>
       <c r="U23" s="17"/>
@@ -989,7 +989,7 @@
       <c r="O24" s="17"/>
       <c r="P24" s="17"/>
       <c r="Q24" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="R24" s="17"/>
       <c r="S24" s="17"/>
@@ -1010,7 +1010,7 @@
       <c r="O25" s="17"/>
       <c r="P25" s="17"/>
       <c r="Q25" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="R25" s="17"/>
       <c r="S25" s="17"/>
@@ -1040,10 +1040,10 @@
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G27" s="1"/>
       <c r="I27" s="18"/>
@@ -1064,7 +1064,7 @@
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G28" s="1"/>
       <c r="I28" s="18"/>
@@ -1075,11 +1075,11 @@
       <c r="O28" s="17"/>
       <c r="P28" s="17"/>
       <c r="Q28" s="17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R28" s="17"/>
       <c r="S28" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T28" s="17"/>
       <c r="U28" s="17"/>
@@ -1098,7 +1098,7 @@
       <c r="O29" s="17"/>
       <c r="P29" s="17"/>
       <c r="Q29" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R29" s="17"/>
       <c r="S29" s="17"/>
@@ -1151,17 +1151,17 @@
       <c r="G32" s="1"/>
       <c r="I32" s="18"/>
       <c r="J32" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K32" s="18"/>
       <c r="L32" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M32" s="18"/>
       <c r="O32" s="17"/>
       <c r="P32" s="17"/>
       <c r="Q32" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="R32" s="17"/>
       <c r="S32" s="17"/>
@@ -1172,10 +1172,10 @@
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G33" s="1"/>
       <c r="I33" s="18"/>
@@ -1186,11 +1186,11 @@
       <c r="O33" s="17"/>
       <c r="P33" s="17"/>
       <c r="Q33" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R33" s="17"/>
       <c r="S33" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="T33" s="17"/>
       <c r="U33" s="17"/>
@@ -1209,7 +1209,7 @@
       <c r="O34" s="17"/>
       <c r="P34" s="17"/>
       <c r="Q34" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="R34" s="17"/>
       <c r="S34" s="17"/>
@@ -1219,13 +1219,13 @@
     <row r="35" spans="3:30" x14ac:dyDescent="0.3">
       <c r="C35" s="3"/>
       <c r="D35" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
       <c r="I35" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J35" s="7"/>
       <c r="K35" s="7"/>
@@ -1233,7 +1233,7 @@
       <c r="M35" s="7"/>
       <c r="O35" s="3"/>
       <c r="P35" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q35" s="7"/>
       <c r="R35" s="7"/>
@@ -1256,21 +1256,21 @@
     </row>
     <row r="42" spans="3:30" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="W42" s="22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="X42" s="21"/>
       <c r="Y42" s="21"/>
     </row>
     <row r="43" spans="3:30" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="W43" s="22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="X43" s="21"/>
       <c r="Y43" s="21"/>
     </row>
     <row r="44" spans="3:30" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="W44" s="22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="X44" s="21"/>
       <c r="Y44" s="21"/>
@@ -1288,10 +1288,10 @@
       <c r="E55" s="10"/>
       <c r="H55" s="9"/>
       <c r="I55" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J55" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K55" s="9"/>
       <c r="L55" s="9"/>
@@ -1300,10 +1300,10 @@
       <c r="O55" s="9"/>
       <c r="P55" s="9"/>
       <c r="Q55" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="R55" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="S55" s="9"/>
       <c r="T55" s="9"/>
@@ -1323,18 +1323,18 @@
     <row r="56" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B56" s="10"/>
       <c r="C56" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E56" s="10"/>
       <c r="H56" s="9"/>
       <c r="I56" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J56" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K56" s="9"/>
       <c r="L56" s="9"/>
@@ -1343,10 +1343,10 @@
       <c r="O56" s="9"/>
       <c r="P56" s="9"/>
       <c r="Q56" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R56" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="S56" s="9"/>
       <c r="T56" s="9"/>
@@ -1370,14 +1370,14 @@
       <c r="E57" s="10"/>
       <c r="H57" s="9"/>
       <c r="I57" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J57" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K57" s="9"/>
       <c r="L57" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M57" s="9"/>
       <c r="N57" s="9"/>
@@ -1386,16 +1386,16 @@
       <c r="Q57" s="9"/>
       <c r="R57" s="9"/>
       <c r="S57" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T57" s="9"/>
       <c r="V57" s="11"/>
       <c r="W57" s="11"/>
       <c r="X57" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Y57" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z57" s="11"/>
       <c r="AA57" s="11"/>
@@ -1413,23 +1413,23 @@
       <c r="E58" s="10"/>
       <c r="H58" s="9"/>
       <c r="I58" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c r="L58" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M58" s="9"/>
       <c r="N58" s="9"/>
       <c r="O58" s="9"/>
       <c r="P58" s="9"/>
       <c r="Q58" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R58" s="9"/>
       <c r="S58" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T58" s="9"/>
       <c r="V58" s="11"/>
@@ -1572,10 +1572,10 @@
     <row r="63" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B63" s="10"/>
       <c r="C63" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E63" s="10"/>
       <c r="H63" s="9"/>
@@ -1583,10 +1583,10 @@
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c r="L63" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M63" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N63" s="9"/>
       <c r="O63" s="9"/>
@@ -1598,35 +1598,35 @@
       <c r="V63" s="11"/>
       <c r="W63" s="11"/>
       <c r="X63" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Y63" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Z63" s="11"/>
       <c r="AA63" s="11"/>
       <c r="AB63" s="11"/>
       <c r="AC63" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AD63" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AE63" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AF63" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG63" s="11"/>
     </row>
     <row r="64" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B64" s="10"/>
       <c r="C64" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E64" s="10"/>
       <c r="H64" s="9"/>
@@ -1635,10 +1635,10 @@
       <c r="K64" s="9"/>
       <c r="L64" s="9"/>
       <c r="M64" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N64" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O64" s="9"/>
       <c r="P64" s="9"/>
@@ -1649,10 +1649,10 @@
       <c r="V64" s="11"/>
       <c r="W64" s="11"/>
       <c r="X64" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y64" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Z64" s="11"/>
       <c r="AA64" s="11"/>
@@ -1666,10 +1666,10 @@
     <row r="65" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B65" s="10"/>
       <c r="C65" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E65" s="10"/>
       <c r="H65" s="9"/>
@@ -1717,7 +1717,7 @@
       <c r="S66" s="9"/>
       <c r="T66" s="9"/>
       <c r="V66" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="W66" s="3"/>
       <c r="X66" s="3"/>
@@ -1733,13 +1733,13 @@
     </row>
     <row r="67" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B67" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
       <c r="H67" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
@@ -1759,7 +1759,7 @@
       <c r="V70" s="6"/>
       <c r="W70" s="6"/>
       <c r="X70" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y70" s="6"/>
       <c r="Z70" s="6"/>
@@ -1769,7 +1769,7 @@
       <c r="V71" s="6"/>
       <c r="W71" s="6"/>
       <c r="X71" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Y71" s="6"/>
       <c r="Z71" s="6"/>
@@ -1779,10 +1779,10 @@
       <c r="V72" s="6"/>
       <c r="W72" s="6"/>
       <c r="X72" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Y72" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z72" s="6"/>
       <c r="AA72" s="6"/>
@@ -1791,7 +1791,7 @@
       <c r="V73" s="6"/>
       <c r="W73" s="6"/>
       <c r="X73" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y73" s="6"/>
       <c r="Z73" s="6"/>
@@ -1801,10 +1801,10 @@
       <c r="V74" s="6"/>
       <c r="W74" s="6"/>
       <c r="X74" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y74" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z74" s="6"/>
       <c r="AA74" s="6"/>
@@ -1857,21 +1857,21 @@
       <c r="V80" s="6"/>
       <c r="W80" s="6"/>
       <c r="X80" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y80" s="6"/>
       <c r="Z80" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AA80" s="6"/>
       <c r="AC80" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AD80" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AE80" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AF80" s="9"/>
     </row>
@@ -1883,7 +1883,7 @@
       <c r="Z81" s="8"/>
       <c r="AA81" s="6"/>
       <c r="AC81" s="7" t="s">
-        <v>6</v>
+        <v>81</v>
       </c>
       <c r="AD81" s="7"/>
       <c r="AE81" s="7"/>
@@ -1976,7 +1976,7 @@
     </row>
     <row r="102" spans="22:27" x14ac:dyDescent="0.3">
       <c r="V102" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="W102" s="2"/>
       <c r="X102" s="2"/>
@@ -1995,7 +1995,7 @@
     <row r="104" spans="22:27" x14ac:dyDescent="0.3">
       <c r="V104" s="2"/>
       <c r="W104" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="X104" s="2"/>
       <c r="Y104" s="2"/>
@@ -2005,7 +2005,7 @@
     <row r="105" spans="22:27" x14ac:dyDescent="0.3">
       <c r="V105" s="2"/>
       <c r="W105" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="X105" s="2"/>
       <c r="Y105" s="2"/>
@@ -2015,7 +2015,7 @@
     <row r="106" spans="22:27" x14ac:dyDescent="0.3">
       <c r="V106" s="2"/>
       <c r="W106" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="X106" s="2"/>
       <c r="Y106" s="2"/>
